--- a/resources/output.xlsx
+++ b/resources/output.xlsx
@@ -14,16 +14,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello world</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+  <si>
+    <t>Styczeń 2020</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Mateusz Dołęga</t>
+  </si>
+  <si>
+    <t>Podpis</t>
+  </si>
+  <si>
+    <t>godziny pracy</t>
+  </si>
+  <si>
+    <t>ilość godzin</t>
+  </si>
+  <si>
+    <t>7:45 - 22:15</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>RAZEM:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,16 +142,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,12 +181,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,18 +508,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4">
+        <f>SUM(C5:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>